--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/vpcSecurityGroupTab.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/vpcSecurityGroupTab.xlsx
@@ -1,25 +1,477 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>security_isFull</t>
+  </si>
+  <si>
+    <t>'The count of added security groups has reached the upper limit, and can't add'</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>only_runOrStop_canAdd_security</t>
+  </si>
+  <si>
+    <t>'Only the running/stopped virtual machine supports adding security group'</t>
+  </si>
+  <si>
+    <t>suceirytName</t>
+  </si>
+  <si>
+    <t>Security Group Name</t>
+  </si>
+  <si>
+    <t>created_time</t>
+  </si>
+  <si>
+    <t>Creation Time</t>
+  </si>
+  <si>
+    <t>operaiton</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>only_runVm_can_remove</t>
+  </si>
+  <si>
+    <t>'Only the running virtual machine can remove'</t>
+  </si>
+  <si>
+    <t>no_security_canRemove</t>
+  </si>
+  <si>
+    <t>'No security group can be removed'</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>no_security_data</t>
+  </si>
+  <si>
+    <t>No security group data</t>
+  </si>
+  <si>
+    <t>add_security</t>
+  </si>
+  <si>
+    <t>Add Security Group</t>
+  </si>
+  <si>
+    <t>add_security_tips</t>
+  </si>
+  <si>
+    <t>Security group is a distributed virtual firewall with a status, used to realize the network identity and access management of the virtual machine/container.</t>
+  </si>
+  <si>
+    <t>operation_guide</t>
+  </si>
+  <si>
+    <t>Operation Guide</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>makeSure_remove_security</t>
+  </si>
+  <si>
+    <t>Confirm to remove the security group</t>
+  </si>
+  <si>
+    <t>remove_security</t>
+  </si>
+  <si>
+    <t>'Remove Security Group'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>安全组名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>移除</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>无安全组数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>添加安全组</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作指南</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确认移除安全组</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>添加安全组数量已达上限，无法添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>仅运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>停止状态的云主机支持添加安全组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>仅运行状态云主机可以移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>无可移除安全组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>安全组是一种分布式、有状态的虚拟防火墙，用于实现云主机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>容器的网络访问控制，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>消</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>移除安全组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +494,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,151 +835,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="173.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>security_isFull</v>
-      </c>
-      <c r="B1" t="str">
-        <v>'添加安全组数量已达上限，无法添加'</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>add</v>
-      </c>
-      <c r="B2" t="str">
-        <v>添加</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>only_runOrStop_canAdd_security</v>
-      </c>
-      <c r="B3" t="str">
-        <v>'仅运行/停止状态的云主机支持添加安全组'</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>suceirytName</v>
-      </c>
-      <c r="B4" t="str">
-        <v>安全组名称</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>created_time</v>
-      </c>
-      <c r="B5" t="str">
-        <v>创建时间</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>operaiton</v>
-      </c>
-      <c r="B6" t="str">
-        <v>操作</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>only_runVm_can_remove</v>
-      </c>
-      <c r="B7" t="str">
-        <v>'仅运行状态云主机可以移除'</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>no_security_canRemove</v>
-      </c>
-      <c r="B8" t="str">
-        <v>'无可移除安全组'</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>security</v>
-      </c>
-      <c r="B9" t="str">
-        <v>移除</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>no_security_data</v>
-      </c>
-      <c r="B10" t="str">
-        <v>无安全组数据</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>add_security</v>
-      </c>
-      <c r="B11" t="str">
-        <v>添加安全组</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>add_security_tips</v>
-      </c>
-      <c r="B12" t="str">
-        <v>安全组是一种分布式、有状态的虚拟防火墙，用于实现云主机/容器的网络访问控制，</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>operation_guide</v>
-      </c>
-      <c r="B13" t="str">
-        <v>操作指南</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>cancel</v>
-      </c>
-      <c r="B14" t="str">
-        <v>取 消</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>confirm</v>
-      </c>
-      <c r="B15" t="str">
-        <v>确 定</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>makeSure_remove_security</v>
-      </c>
-      <c r="B16" t="str">
-        <v>确认移除安全组</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>remove_security</v>
-      </c>
-      <c r="B17" t="str">
-        <v>'移除安全组'</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B17"/>
+    <ignoredError sqref="C1:C17 A1:A17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>